--- a/biology/Zoologie/Bihoreau_cannelle/Bihoreau_cannelle.xlsx
+++ b/biology/Zoologie/Bihoreau_cannelle/Bihoreau_cannelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nycticorax caledonicus
 Le Bihoreau cannelle (Nycticorax caledonicus) est une espèce d'oiseaux de la famille des ardéidés qui se retrouve en Océanie et dans le Sud-Est asiatique.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bihoreau cannelle niche en Nouvelle-Calédonie, aux Philippines, en Indonésie, aux Palaos, aux États fédérés de Micronésie, sur l'archipel Bismarck, aux îles Salomon, en Australie et en Nouvelle-Zélande. Il réside en permanence dans toute son aire de nidification, mais ses aires d’hivernage sont un peu plus étendues.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bihoreau fréquente une grande variété d’habitats. Il se nourrit généralement dans l’eau stagnante, ou avec un courant faible, et de faible profondeur.
 </t>
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est très grégaire et niche en colonies dont la taille varie entre 200 et 3000 oiseaux parfois en compagnie d’autres hérons, de spatules, de cormorans, ou d’ibis. Le nid peut être placé jusqu'à 20 mètres de haut dans un arbre, dans un gros arbuste, dans la mangrove ou au sol. Le nid est fait d’un assemblage lâche de bâtonnets. Les œufs sont au nombre de deux à cinq.
 </t>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe six sous-espèces :
 N. c. caledonicus, Gmelin, 1789
